--- a/trunk/Docs/PDSP_Documents - Milestone 3.xlsx
+++ b/trunk/Docs/PDSP_Documents - Milestone 3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="WBS" sheetId="1" r:id="rId1"/>
+    <sheet name="WBS" sheetId="16" r:id="rId1"/>
     <sheet name="WBS Diagram" sheetId="9" r:id="rId2"/>
-    <sheet name="RWT" sheetId="4" r:id="rId3"/>
+    <sheet name="RWT" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="TRL (AIVAN)" sheetId="11" r:id="rId4"/>
     <sheet name="TRL(PETER)" sheetId="15" r:id="rId5"/>
     <sheet name="TRL(PJ)" sheetId="6" r:id="rId6"/>
@@ -17,18 +17,18 @@
     <sheet name="TUL(PETER)" sheetId="14" r:id="rId8"/>
     <sheet name="TUL(PJ)" sheetId="12" r:id="rId9"/>
     <sheet name="DLT" sheetId="13" r:id="rId10"/>
-    <sheet name="SPT" sheetId="5" r:id="rId11"/>
+    <sheet name="SPT" sheetId="5" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WBS!$B$10:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'WBS Diagram'!$A$2:$M$28</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="189">
   <si>
     <t>SCHEDULE PLANNING TEMPLATE</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Inputs From</t>
-  </si>
-  <si>
-    <t>Outputs To</t>
   </si>
   <si>
     <t>Planned Value</t>
@@ -235,24 +229,6 @@
     <t>Level 3 WBS</t>
   </si>
   <si>
-    <t>Evaluation &amp; Selection</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Build</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Implementation</t>
-  </si>
-  <si>
-    <t>Stabilization</t>
-  </si>
-  <si>
     <t>PROGLAN PROJECT</t>
   </si>
   <si>
@@ -322,12 +298,6 @@
     <t>Execution</t>
   </si>
   <si>
-    <t>Bug fixing: Scanner</t>
-  </si>
-  <si>
-    <t>Coding: Scanner</t>
-  </si>
-  <si>
     <t>Coding: Parser</t>
   </si>
   <si>
@@ -562,12 +532,6 @@
     <t>Group Name</t>
   </si>
   <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>19/02/2010</t>
-  </si>
-  <si>
     <t>Work Scopes</t>
   </si>
   <si>
@@ -617,6 +581,27 @@
   </si>
   <si>
     <t>Tasks</t>
+  </si>
+  <si>
+    <t>Scanner() constructor</t>
+  </si>
+  <si>
+    <t>Init() function</t>
+  </si>
+  <si>
+    <t>GetToken() function</t>
+  </si>
+  <si>
+    <t>Scan() function</t>
+  </si>
+  <si>
+    <t>LookAhead() function</t>
+  </si>
+  <si>
+    <t>Token Class</t>
+  </si>
+  <si>
+    <t>Bug fixing: Parser</t>
   </si>
 </sst>
 </file>
@@ -761,7 +746,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,12 +756,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,7 +1414,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1753,254 +1732,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="32" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="33" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="35" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="38" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="32" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="33" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="35" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="38" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2009,6 +1852,141 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2310,7 +2288,7 @@
   <dimension ref="B3:J21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2321,32 +2299,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="207" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
+        <v>164</v>
+      </c>
+      <c r="C6" s="212" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="G6" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>176</v>
+      <c r="H6" s="83">
+        <v>40301</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -2355,13 +2333,13 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="208" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
+      <c r="C7" s="213" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4">
         <v>2</v>
@@ -2371,10 +2349,10 @@
     </row>
     <row r="8" spans="2:10">
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -2400,12 +2378,6 @@
         <v>11</v>
       </c>
       <c r="H10" s="170" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="170" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="170" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2414,24 +2386,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="D11" s="206">
+        <v>5</v>
+      </c>
+      <c r="E11" s="206">
+        <v>6</v>
+      </c>
       <c r="F11" s="206">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="206">
-        <v>6</v>
-      </c>
-      <c r="H11" s="206">
-        <v>5</v>
-      </c>
-      <c r="I11" s="206">
-        <v>5</v>
-      </c>
-      <c r="J11" s="84">
-        <v>40227</v>
+        <v>4</v>
+      </c>
+      <c r="H11" s="84">
+        <v>40224</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1">
@@ -2439,25 +2409,21 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>3</v>
+        <v>183</v>
+      </c>
+      <c r="D12" s="206">
+        <v>2</v>
+      </c>
+      <c r="E12" s="206">
+        <v>2</v>
       </c>
       <c r="F12" s="206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="206">
-        <v>2</v>
-      </c>
-      <c r="H12" s="206">
-        <v>2</v>
-      </c>
-      <c r="I12" s="206">
-        <v>7</v>
-      </c>
-      <c r="J12" s="84">
+        <v>5</v>
+      </c>
+      <c r="H12" s="84">
         <v>40224</v>
       </c>
     </row>
@@ -2466,27 +2432,21 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4</v>
+        <v>184</v>
+      </c>
+      <c r="D13" s="206">
+        <v>2</v>
+      </c>
+      <c r="E13" s="206">
+        <v>2</v>
       </c>
       <c r="F13" s="206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="206">
-        <v>2</v>
-      </c>
-      <c r="H13" s="206">
-        <v>2</v>
-      </c>
-      <c r="I13" s="206">
-        <v>12</v>
-      </c>
-      <c r="J13" s="84">
+        <v>6</v>
+      </c>
+      <c r="H13" s="84">
         <v>40224</v>
       </c>
     </row>
@@ -2494,28 +2454,22 @@
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="208" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="206">
+        <v>4</v>
+      </c>
+      <c r="E14" s="206">
+        <v>4</v>
+      </c>
+      <c r="F14" s="206">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="206">
-        <v>4</v>
-      </c>
       <c r="G14" s="206">
-        <v>4</v>
-      </c>
-      <c r="H14" s="206">
-        <v>4</v>
-      </c>
-      <c r="I14" s="206">
-        <v>16</v>
-      </c>
-      <c r="J14" s="84">
+        <v>9</v>
+      </c>
+      <c r="H14" s="84">
         <v>40225</v>
       </c>
     </row>
@@ -2524,141 +2478,107 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="2">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2">
-        <v>6</v>
+        <v>186</v>
+      </c>
+      <c r="D15" s="206">
+        <v>3</v>
+      </c>
+      <c r="E15" s="206">
+        <v>3</v>
       </c>
       <c r="F15" s="206">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G15" s="206">
-        <v>3</v>
-      </c>
-      <c r="H15" s="206">
-        <v>3</v>
-      </c>
-      <c r="I15" s="206">
         <v>19</v>
       </c>
-      <c r="J15" s="84">
+      <c r="H15" s="84">
         <v>40226</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1">
       <c r="B16" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="2">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2">
-        <v>8</v>
+        <v>187</v>
+      </c>
+      <c r="D16" s="206">
+        <v>20</v>
+      </c>
+      <c r="E16" s="206">
+        <v>20</v>
       </c>
       <c r="F16" s="206">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G16" s="206">
-        <v>20</v>
-      </c>
-      <c r="H16" s="206">
-        <v>20</v>
-      </c>
-      <c r="I16" s="206">
-        <v>39</v>
-      </c>
-      <c r="J16" s="84">
+        <v>29</v>
+      </c>
+      <c r="H16" s="84">
         <v>40227</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B17" s="2">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="2">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2">
-        <v>9</v>
-      </c>
-      <c r="F17" s="206">
-        <v>4</v>
-      </c>
-      <c r="G17" s="206">
-        <v>4</v>
-      </c>
-      <c r="H17" s="206">
-        <v>4</v>
-      </c>
-      <c r="I17" s="206">
-        <v>43</v>
-      </c>
-      <c r="J17" s="84">
-        <v>40228</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+    <row r="17" spans="2:10">
+      <c r="B17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="209"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="210"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="B10:J21"/>
-  <sortState ref="B11:J21">
-    <sortCondition ref="B11"/>
-  </sortState>
   <mergeCells count="3">
+    <mergeCell ref="B3:J3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2669,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2688,35 +2608,35 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="15.75">
-      <c r="B3" s="209" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
+      <c r="B3" s="211" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="207" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
+      <c r="C6" s="212" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="G6" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="129">
-        <v>40229</v>
+        <v>40242</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -2726,13 +2646,13 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="208" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
+      <c r="C7" s="213" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" s="95">
         <v>2</v>
@@ -2743,10 +2663,10 @@
     </row>
     <row r="8" spans="2:14">
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="95" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -2755,40 +2675,40 @@
     <row r="9" spans="2:14" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:14" ht="30.75" thickBot="1">
       <c r="B10" s="173" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="173" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="173" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="173" t="s">
+      <c r="G10" s="173" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="173" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="173" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="173" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="173" t="s">
+      <c r="I10" s="173" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="173" t="s">
+      <c r="K10" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="173" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="173" t="s">
+      <c r="L10" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="173" t="s">
+      <c r="M10" s="173" t="s">
         <v>40</v>
-      </c>
-      <c r="L10" s="173" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="173" t="s">
-        <v>42</v>
       </c>
       <c r="N10" s="173" t="s">
         <v>7</v>
@@ -2799,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="130" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D11" s="131">
         <v>40211</v>
@@ -2808,27 +2728,27 @@
         <v>80</v>
       </c>
       <c r="F11" s="130" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G11" s="131">
         <v>40225</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I11" s="130" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J11" s="130"/>
       <c r="K11" s="131">
         <v>40232</v>
       </c>
       <c r="L11" s="130" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="M11" s="130"/>
       <c r="N11" s="133" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -2836,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D12" s="135">
         <v>40220</v>
@@ -2845,27 +2765,27 @@
         <v>80</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G12" s="135">
         <v>40225</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I12" s="134" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J12" s="134"/>
       <c r="K12" s="135">
         <v>40231</v>
       </c>
       <c r="L12" s="134" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M12" s="134"/>
       <c r="N12" s="134" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="2:14">
@@ -2873,7 +2793,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D13" s="135">
         <v>40225</v>
@@ -2882,27 +2802,27 @@
         <v>60</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G13" s="135">
         <v>40225</v>
       </c>
       <c r="H13" s="134" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J13" s="134"/>
       <c r="K13" s="135">
         <v>40232</v>
       </c>
       <c r="L13" s="134" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M13" s="134"/>
       <c r="N13" s="134" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:14">
@@ -2910,7 +2830,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D14" s="135">
         <v>40225</v>
@@ -2919,27 +2839,27 @@
         <v>60</v>
       </c>
       <c r="F14" s="134" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G14" s="135">
         <v>40225</v>
       </c>
       <c r="H14" s="134" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I14" s="134" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J14" s="134"/>
       <c r="K14" s="135">
         <v>40233</v>
       </c>
       <c r="L14" s="134" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M14" s="134"/>
       <c r="N14" s="134" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:14">
@@ -2947,7 +2867,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="134" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D15" s="135">
         <v>40228</v>
@@ -2956,27 +2876,27 @@
         <v>40</v>
       </c>
       <c r="F15" s="134" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G15" s="135">
         <v>40228</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I15" s="134" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J15" s="134"/>
       <c r="K15" s="135">
         <v>40232</v>
       </c>
       <c r="L15" s="134" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M15" s="134"/>
       <c r="N15" s="134" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:14">
@@ -3086,25 +3006,25 @@
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="136" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="136" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="249" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="250"/>
-      <c r="F27" s="250"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="251"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="257"/>
       <c r="I27" s="69"/>
-      <c r="J27" s="252" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" s="252"/>
+      <c r="J27" s="258" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="258"/>
       <c r="L27" s="134" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="17.25" customHeight="1">
@@ -3112,59 +3032,59 @@
       <c r="C28" s="68">
         <v>10</v>
       </c>
-      <c r="D28" s="245" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="246"/>
-      <c r="F28" s="246"/>
-      <c r="G28" s="246"/>
-      <c r="H28" s="247"/>
+      <c r="D28" s="251" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="252"/>
+      <c r="F28" s="252"/>
+      <c r="G28" s="252"/>
+      <c r="H28" s="253"/>
       <c r="I28" s="70"/>
-      <c r="J28" s="248" t="s">
-        <v>147</v>
-      </c>
-      <c r="K28" s="248"/>
+      <c r="J28" s="254" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" s="254"/>
       <c r="L28" s="137" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1">
       <c r="B29" s="67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="68">
         <v>20</v>
       </c>
-      <c r="D29" s="245" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="246"/>
-      <c r="F29" s="246"/>
-      <c r="G29" s="246"/>
-      <c r="H29" s="247"/>
+      <c r="D29" s="251" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="252"/>
+      <c r="F29" s="252"/>
+      <c r="G29" s="252"/>
+      <c r="H29" s="253"/>
       <c r="I29" s="70"/>
-      <c r="J29" s="248" t="s">
-        <v>148</v>
-      </c>
-      <c r="K29" s="248"/>
+      <c r="J29" s="254" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" s="254"/>
       <c r="L29" s="137" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="31.5" customHeight="1">
       <c r="B30" s="67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="68">
         <v>30</v>
       </c>
-      <c r="D30" s="245" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="246"/>
-      <c r="F30" s="246"/>
-      <c r="G30" s="246"/>
-      <c r="H30" s="247"/>
+      <c r="D30" s="251" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="252"/>
+      <c r="F30" s="252"/>
+      <c r="G30" s="252"/>
+      <c r="H30" s="253"/>
       <c r="I30" s="70"/>
       <c r="J30" s="70"/>
       <c r="K30" s="70"/>
@@ -3172,18 +3092,18 @@
     </row>
     <row r="31" spans="2:14" ht="31.5" customHeight="1">
       <c r="B31" s="67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="68">
         <v>40</v>
       </c>
-      <c r="D31" s="245" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="246"/>
-      <c r="F31" s="246"/>
-      <c r="G31" s="246"/>
-      <c r="H31" s="247"/>
+      <c r="D31" s="251" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="252"/>
+      <c r="F31" s="252"/>
+      <c r="G31" s="252"/>
+      <c r="H31" s="253"/>
       <c r="I31" s="70"/>
       <c r="J31" s="70"/>
       <c r="K31" s="70"/>
@@ -3191,18 +3111,18 @@
     </row>
     <row r="32" spans="2:14" ht="33.75" customHeight="1">
       <c r="B32" s="67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="68">
         <v>50</v>
       </c>
-      <c r="D32" s="245" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="246"/>
-      <c r="F32" s="246"/>
-      <c r="G32" s="246"/>
-      <c r="H32" s="247"/>
+      <c r="D32" s="251" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="252"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="252"/>
+      <c r="H32" s="253"/>
       <c r="I32" s="70"/>
       <c r="J32" s="70"/>
       <c r="K32" s="70"/>
@@ -3210,18 +3130,18 @@
     </row>
     <row r="33" spans="2:12" ht="17.25" customHeight="1">
       <c r="B33" s="67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="68">
         <v>60</v>
       </c>
-      <c r="D33" s="245" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="246"/>
-      <c r="F33" s="246"/>
-      <c r="G33" s="246"/>
-      <c r="H33" s="247"/>
+      <c r="D33" s="251" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="252"/>
+      <c r="F33" s="252"/>
+      <c r="G33" s="252"/>
+      <c r="H33" s="253"/>
       <c r="I33" s="70"/>
       <c r="J33" s="70"/>
       <c r="K33" s="70"/>
@@ -3232,13 +3152,13 @@
       <c r="C34" s="68">
         <v>70</v>
       </c>
-      <c r="D34" s="245" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="246"/>
-      <c r="F34" s="246"/>
-      <c r="G34" s="246"/>
-      <c r="H34" s="247"/>
+      <c r="D34" s="251" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="252"/>
+      <c r="F34" s="252"/>
+      <c r="G34" s="252"/>
+      <c r="H34" s="253"/>
       <c r="I34" s="70"/>
       <c r="J34" s="70"/>
       <c r="K34" s="70"/>
@@ -3249,13 +3169,13 @@
       <c r="C35" s="68">
         <v>80</v>
       </c>
-      <c r="D35" s="245" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="246"/>
-      <c r="F35" s="246"/>
-      <c r="G35" s="246"/>
-      <c r="H35" s="247"/>
+      <c r="D35" s="251" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="252"/>
+      <c r="F35" s="252"/>
+      <c r="G35" s="252"/>
+      <c r="H35" s="253"/>
       <c r="I35" s="70"/>
       <c r="J35" s="70"/>
       <c r="K35" s="70"/>
@@ -3266,13 +3186,13 @@
       <c r="C36" s="68">
         <v>90</v>
       </c>
-      <c r="D36" s="245" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="246"/>
-      <c r="F36" s="246"/>
-      <c r="G36" s="246"/>
-      <c r="H36" s="247"/>
+      <c r="D36" s="251" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="252"/>
+      <c r="F36" s="252"/>
+      <c r="G36" s="252"/>
+      <c r="H36" s="253"/>
       <c r="I36" s="70"/>
       <c r="J36" s="70"/>
       <c r="K36" s="70"/>
@@ -3283,13 +3203,13 @@
       <c r="C37" s="68">
         <v>100</v>
       </c>
-      <c r="D37" s="245" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="246"/>
-      <c r="F37" s="246"/>
-      <c r="G37" s="246"/>
-      <c r="H37" s="247"/>
+      <c r="D37" s="251" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="252"/>
+      <c r="F37" s="252"/>
+      <c r="G37" s="252"/>
+      <c r="H37" s="253"/>
       <c r="I37" s="70"/>
       <c r="J37" s="70"/>
       <c r="K37" s="70"/>
@@ -3297,27 +3217,27 @@
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="136" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3363,83 +3283,83 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.75">
-      <c r="B3" s="253" t="s">
+      <c r="B3" s="259" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1">
-      <c r="B6" s="254" t="s">
+      <c r="B6" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="254"/>
-      <c r="D6" s="255"/>
-      <c r="E6" s="255"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
       <c r="F6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="255"/>
-      <c r="H6" s="255"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1">
-      <c r="B7" s="254" t="s">
+      <c r="B7" s="260" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="254"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="262"/>
+      <c r="E7" s="262"/>
       <c r="F7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
     </row>
     <row r="9" spans="2:9" ht="13.5" thickBot="1"/>
     <row r="10" spans="2:9" ht="13.5" thickBot="1">
       <c r="B10" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:9" ht="13.5" thickBot="1">
       <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -4122,8 +4042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5027,13 +4947,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A1" s="210" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
+      <c r="A1" s="214" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
       <c r="F1" s="28"/>
       <c r="G1" s="29"/>
       <c r="H1" s="28"/>
@@ -5060,7 +4980,7 @@
     </row>
     <row r="3" spans="1:13" ht="34.5" customHeight="1">
       <c r="A3" s="165" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -5073,7 +4993,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
-      <c r="M3" s="258"/>
+      <c r="M3" s="207"/>
     </row>
     <row r="4" spans="1:13" ht="9" customHeight="1" thickBot="1">
       <c r="A4" s="34"/>
@@ -5092,7 +5012,7 @@
     </row>
     <row r="5" spans="1:13" ht="29.25" customHeight="1" thickBot="1">
       <c r="A5" s="166" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -5100,7 +5020,7 @@
       <c r="E5" s="38"/>
       <c r="F5" s="28"/>
       <c r="G5" s="39" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H5" s="40"/>
       <c r="I5" s="38"/>
@@ -5108,7 +5028,7 @@
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
       <c r="M5" s="41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="9" customHeight="1">
@@ -5143,31 +5063,31 @@
     </row>
     <row r="8" spans="1:13" ht="45.75" customHeight="1" thickBot="1">
       <c r="A8" s="166" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="168" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D8" s="167"/>
       <c r="E8" s="168" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="168" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="168" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="168" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L8" s="47"/>
       <c r="M8" s="41" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="9" customHeight="1">
@@ -5202,40 +5122,38 @@
     </row>
     <row r="11" spans="1:13" ht="28.5" customHeight="1">
       <c r="A11" s="166" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="53" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="53" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="53" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="53" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="J11" s="48"/>
       <c r="K11" s="53" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="L11" s="49"/>
       <c r="M11" s="41" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="50"/>
       <c r="B12" s="38"/>
       <c r="C12" s="49"/>
-      <c r="D12" s="48">
-        <v>1</v>
-      </c>
+      <c r="D12" s="48"/>
       <c r="E12" s="49"/>
       <c r="F12" s="48"/>
       <c r="G12" s="49"/>
@@ -5250,11 +5168,11 @@
       <c r="A13" s="52"/>
       <c r="B13" s="38"/>
       <c r="C13" s="53" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D13" s="54"/>
       <c r="E13" s="53" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="58"/>
@@ -5284,11 +5202,11 @@
       <c r="A15" s="57"/>
       <c r="B15" s="56"/>
       <c r="C15" s="53" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D15" s="48"/>
-      <c r="E15" s="259" t="s">
-        <v>191</v>
+      <c r="E15" s="216" t="s">
+        <v>179</v>
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="58"/>
@@ -5304,7 +5222,7 @@
       <c r="B16" s="56"/>
       <c r="C16" s="49"/>
       <c r="D16" s="48"/>
-      <c r="E16" s="260"/>
+      <c r="E16" s="217"/>
       <c r="F16" s="48"/>
       <c r="G16" s="49"/>
       <c r="H16" s="48"/>
@@ -5318,7 +5236,7 @@
       <c r="A17" s="57"/>
       <c r="B17" s="56"/>
       <c r="C17" s="53" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="58"/>
@@ -5350,7 +5268,7 @@
       <c r="A19" s="57"/>
       <c r="B19" s="56"/>
       <c r="C19" s="53" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="58"/>
@@ -5382,7 +5300,7 @@
       <c r="A21" s="57"/>
       <c r="B21" s="56"/>
       <c r="C21" s="53" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D21" s="48"/>
       <c r="E21" s="58"/>
@@ -5417,7 +5335,7 @@
       <c r="D23" s="48"/>
       <c r="E23" s="58"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="257"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="48"/>
       <c r="I23" s="58"/>
       <c r="J23" s="48"/>
@@ -5447,7 +5365,7 @@
       <c r="D25" s="48"/>
       <c r="E25" s="58"/>
       <c r="F25" s="48"/>
-      <c r="G25" s="257"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="48"/>
       <c r="I25" s="58"/>
       <c r="J25" s="48"/>
@@ -5523,7 +5441,7 @@
   <dimension ref="B3:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5538,28 +5456,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15.75">
-      <c r="B3" s="215" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
+      <c r="B3" s="221" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
       <c r="K3" s="66"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="207" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
+        <v>164</v>
+      </c>
+      <c r="C6" s="212" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="F6" s="64"/>
       <c r="H6" t="s">
         <v>2</v>
@@ -5572,14 +5490,14 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="208" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
+      <c r="C7" s="213" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
       <c r="F7" s="64"/>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" s="4">
         <v>2</v>
@@ -5589,7 +5507,7 @@
     </row>
     <row r="8" spans="2:11">
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
@@ -5597,183 +5515,183 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B10" s="216" t="s">
+      <c r="B10" s="222" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="224" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="218" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="219"/>
-      <c r="E10" s="222" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="223"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="222" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="223"/>
-      <c r="J10" s="224"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="228" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="229"/>
+      <c r="G10" s="230"/>
+      <c r="H10" s="228" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="229"/>
+      <c r="J10" s="230"/>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="2:11" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B11" s="217"/>
-      <c r="C11" s="220"/>
-      <c r="D11" s="221"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="227"/>
       <c r="E11" s="171" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F11" s="171" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G11" s="171" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="222"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="224"/>
+        <v>68</v>
+      </c>
+      <c r="H11" s="228"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="230"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:11" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="169" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="225" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="226"/>
+        <v>159</v>
+      </c>
+      <c r="C12" s="231" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="232"/>
       <c r="E12" s="169" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F12" s="169" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G12" s="169" t="s">
-        <v>173</v>
-      </c>
-      <c r="H12" s="212"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="214"/>
+        <v>163</v>
+      </c>
+      <c r="H12" s="218"/>
+      <c r="I12" s="219"/>
+      <c r="J12" s="220"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="2"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="214"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="220"/>
       <c r="E13" s="65"/>
       <c r="F13" s="65"/>
       <c r="G13" s="65"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="214"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="219"/>
+      <c r="J13" s="220"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="2"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="214"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="220"/>
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
       <c r="G14" s="65"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="213"/>
-      <c r="J14" s="214"/>
+      <c r="H14" s="218"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="220"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
       <c r="B15" s="2"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="214"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="220"/>
       <c r="E15" s="65"/>
       <c r="F15" s="65"/>
       <c r="G15" s="65"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="214"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
       <c r="B16" s="2"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="214"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="220"/>
       <c r="E16" s="65"/>
       <c r="F16" s="65"/>
       <c r="G16" s="65"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="214"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
       <c r="B17" s="2"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="214"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="220"/>
       <c r="E17" s="65"/>
       <c r="F17" s="65"/>
       <c r="G17" s="65"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="214"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="220"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
       <c r="B18" s="2"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="214"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="220"/>
       <c r="E18" s="65"/>
       <c r="F18" s="65"/>
       <c r="G18" s="65"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="214"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="220"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1">
       <c r="B19" s="2"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="214"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="220"/>
       <c r="E19" s="65"/>
       <c r="F19" s="65"/>
       <c r="G19" s="65"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="214"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="220"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
       <c r="B20" s="2"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="214"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="220"/>
       <c r="E20" s="65"/>
       <c r="F20" s="65"/>
       <c r="G20" s="65"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="214"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="220"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
       <c r="B21" s="2"/>
-      <c r="C21" s="212"/>
-      <c r="D21" s="214"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="220"/>
       <c r="E21" s="65"/>
       <c r="F21" s="65"/>
       <c r="G21" s="65"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="214"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="220"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="2"/>
-      <c r="C22" s="212"/>
-      <c r="D22" s="214"/>
+      <c r="C22" s="218"/>
+      <c r="D22" s="220"/>
       <c r="E22" s="65"/>
       <c r="F22" s="65"/>
       <c r="G22" s="65"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="214"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="220"/>
       <c r="K22" s="7"/>
     </row>
   </sheetData>
@@ -5818,7 +5736,7 @@
   <dimension ref="B3:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5830,32 +5748,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75">
-      <c r="B3" s="215" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
+      <c r="B3" s="221" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="207" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
+      <c r="C6" s="212" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="G6" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="83">
-        <v>40228</v>
+        <v>40242</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -5864,11 +5782,11 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="208" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
+      <c r="C7" s="213" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
       <c r="G7" t="s">
         <v>4</v>
       </c>
@@ -5878,10 +5796,10 @@
     </row>
     <row r="8" spans="2:10">
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -5892,27 +5810,27 @@
         <v>2</v>
       </c>
       <c r="C10" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="170" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="170" t="s">
+      <c r="F10" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="172" t="s">
+      <c r="G10" s="230"/>
+      <c r="H10" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="222" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="224"/>
-      <c r="H10" s="222" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="223"/>
-      <c r="J10" s="224"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="230"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1">
       <c r="B11" s="84">
-        <v>40224</v>
+        <v>40238</v>
       </c>
       <c r="C11" s="86">
         <v>0.375</v>
@@ -5923,19 +5841,19 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="214"/>
-      <c r="H11" s="212" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="213"/>
-      <c r="J11" s="214"/>
+      <c r="F11" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="220"/>
+      <c r="H11" s="218" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="219"/>
+      <c r="J11" s="220"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1">
       <c r="B12" s="84">
-        <v>40224</v>
+        <v>40238</v>
       </c>
       <c r="C12" s="86">
         <v>0.875</v>
@@ -5946,19 +5864,19 @@
       <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="214"/>
-      <c r="H12" s="212" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="213"/>
-      <c r="J12" s="214"/>
+      <c r="F12" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="220"/>
+      <c r="H12" s="218" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" s="219"/>
+      <c r="J12" s="220"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1">
       <c r="B13" s="84">
-        <v>40227</v>
+        <v>40241</v>
       </c>
       <c r="C13" s="86">
         <v>0.54166666666666663</v>
@@ -5969,19 +5887,19 @@
       <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="214"/>
-      <c r="H13" s="212" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="213"/>
-      <c r="J13" s="214"/>
+      <c r="F13" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="220"/>
+      <c r="H13" s="218" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="219"/>
+      <c r="J13" s="220"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
       <c r="B14" s="84">
-        <v>40227</v>
+        <v>40241</v>
       </c>
       <c r="C14" s="86">
         <v>0.91666666666666663</v>
@@ -5992,103 +5910,103 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="214"/>
-      <c r="H14" s="212" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="213"/>
-      <c r="J14" s="214"/>
+      <c r="F14" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="220"/>
+      <c r="H14" s="218" t="s">
+        <v>188</v>
+      </c>
+      <c r="I14" s="219"/>
+      <c r="J14" s="220"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
       <c r="B15" s="84"/>
       <c r="C15" s="86"/>
       <c r="D15" s="85"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="214"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="220"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1">
       <c r="B16" s="2"/>
       <c r="C16" s="86"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="214"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1">
       <c r="B17" s="2"/>
       <c r="C17" s="86"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="214"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="220"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="220"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1">
       <c r="B18" s="2"/>
       <c r="C18" s="86"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="214"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="220"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1">
       <c r="B19" s="2"/>
       <c r="C19" s="86"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="214"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="220"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" thickBot="1">
       <c r="B20" s="2"/>
       <c r="C20" s="86"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="214"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="220"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="220"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1">
       <c r="B21" s="2"/>
       <c r="C21" s="86"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="214"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="220"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" thickBot="1">
       <c r="B22" s="2"/>
       <c r="C22" s="86"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="214"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -6132,7 +6050,7 @@
   <dimension ref="B3:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F28"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6144,32 +6062,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75">
-      <c r="B3" s="209" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
+      <c r="B3" s="211" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="233"/>
+      <c r="H3" s="233"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="207" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
+      <c r="C6" s="212" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="G6" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="83">
-        <v>40229</v>
+        <v>40242</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -6178,11 +6096,11 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="208" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
+      <c r="C7" s="213" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
       <c r="G7" t="s">
         <v>4</v>
       </c>
@@ -6192,10 +6110,10 @@
     </row>
     <row r="8" spans="2:10">
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -6206,27 +6124,27 @@
         <v>2</v>
       </c>
       <c r="C10" s="173" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="173" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="173" t="s">
+      <c r="F10" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="174" t="s">
+      <c r="G10" s="235"/>
+      <c r="H10" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="228" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="229"/>
-      <c r="H10" s="228" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="230"/>
-      <c r="J10" s="229"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="235"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1">
       <c r="B11" s="162">
-        <v>40211</v>
+        <v>40239</v>
       </c>
       <c r="C11" s="163">
         <v>0.54166666666666663</v>
@@ -6237,19 +6155,19 @@
       <c r="E11" s="164">
         <v>4</v>
       </c>
-      <c r="F11" s="212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="214"/>
-      <c r="H11" s="212" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="213"/>
-      <c r="J11" s="214"/>
+      <c r="F11" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="220"/>
+      <c r="H11" s="218" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="219"/>
+      <c r="J11" s="220"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1">
       <c r="B12" s="162">
-        <v>40211</v>
+        <v>40239</v>
       </c>
       <c r="C12" s="163">
         <v>0.83333333333333337</v>
@@ -6260,19 +6178,19 @@
       <c r="E12" s="164">
         <v>3</v>
       </c>
-      <c r="F12" s="212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="214"/>
-      <c r="H12" s="212" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="213"/>
-      <c r="J12" s="214"/>
+      <c r="F12" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="220"/>
+      <c r="H12" s="218" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="219"/>
+      <c r="J12" s="220"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1">
       <c r="B13" s="162">
-        <v>40212</v>
+        <v>40240</v>
       </c>
       <c r="C13" s="163">
         <v>0.45833333333333331</v>
@@ -6283,19 +6201,19 @@
       <c r="E13" s="164">
         <v>2</v>
       </c>
-      <c r="F13" s="212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="214"/>
-      <c r="H13" s="212" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="213"/>
-      <c r="J13" s="214"/>
+      <c r="F13" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="220"/>
+      <c r="H13" s="218" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="219"/>
+      <c r="J13" s="220"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
       <c r="B14" s="162">
-        <v>40218</v>
+        <v>40241</v>
       </c>
       <c r="C14" s="163">
         <v>0.54166666666666663</v>
@@ -6306,19 +6224,19 @@
       <c r="E14" s="164">
         <v>3</v>
       </c>
-      <c r="F14" s="212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="214"/>
-      <c r="H14" s="212" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="213"/>
-      <c r="J14" s="214"/>
+      <c r="F14" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="220"/>
+      <c r="H14" s="218" t="s">
+        <v>188</v>
+      </c>
+      <c r="I14" s="219"/>
+      <c r="J14" s="220"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
       <c r="B15" s="162">
-        <v>40228</v>
+        <v>40242</v>
       </c>
       <c r="C15" s="163">
         <v>0.5</v>
@@ -6329,15 +6247,15 @@
       <c r="E15" s="164">
         <v>3.5</v>
       </c>
-      <c r="F15" s="212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="214"/>
-      <c r="H15" s="212" t="s">
-        <v>167</v>
-      </c>
-      <c r="I15" s="213"/>
-      <c r="J15" s="214"/>
+      <c r="F15" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="220"/>
+      <c r="H15" s="218" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="219"/>
+      <c r="J15" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -6367,7 +6285,7 @@
   <dimension ref="B3:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="B10:J10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6379,32 +6297,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75">
-      <c r="B3" s="215" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
+      <c r="B3" s="221" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="207" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
+      <c r="C6" s="212" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="G6" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="83">
-        <v>40228</v>
+        <v>40242</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -6413,11 +6331,11 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="208" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
+      <c r="C7" s="213" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
       <c r="G7" t="s">
         <v>4</v>
       </c>
@@ -6427,10 +6345,10 @@
     </row>
     <row r="8" spans="2:10">
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -6441,27 +6359,27 @@
         <v>2</v>
       </c>
       <c r="C10" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="170" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="170" t="s">
+      <c r="F10" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="172" t="s">
+      <c r="G10" s="230"/>
+      <c r="H10" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="222" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="224"/>
-      <c r="H10" s="222" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="223"/>
-      <c r="J10" s="224"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="230"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1">
       <c r="B11" s="84">
-        <v>40225</v>
+        <v>40240</v>
       </c>
       <c r="C11" s="86">
         <v>0.84375</v>
@@ -6472,19 +6390,19 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="214"/>
-      <c r="H11" s="212" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="213"/>
-      <c r="J11" s="214"/>
+      <c r="F11" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="220"/>
+      <c r="H11" s="218" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="219"/>
+      <c r="J11" s="220"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1">
       <c r="B12" s="84">
-        <v>40226</v>
+        <v>40241</v>
       </c>
       <c r="C12" s="86">
         <v>0.5625</v>
@@ -6495,19 +6413,19 @@
       <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="F12" s="212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="214"/>
-      <c r="H12" s="212" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="213"/>
-      <c r="J12" s="214"/>
+      <c r="F12" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="220"/>
+      <c r="H12" s="218" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="219"/>
+      <c r="J12" s="220"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1">
       <c r="B13" s="84">
-        <v>40226</v>
+        <v>40241</v>
       </c>
       <c r="C13" s="86">
         <v>0.89583333333333337</v>
@@ -6518,19 +6436,19 @@
       <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="214"/>
-      <c r="H13" s="212" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="213"/>
-      <c r="J13" s="214"/>
+      <c r="F13" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="220"/>
+      <c r="H13" s="218" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="219"/>
+      <c r="J13" s="220"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
       <c r="B14" s="84">
-        <v>40227</v>
+        <v>40241</v>
       </c>
       <c r="C14" s="86">
         <v>0.91666666666666663</v>
@@ -6541,19 +6459,19 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="214"/>
-      <c r="H14" s="212" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="213"/>
-      <c r="J14" s="214"/>
+      <c r="F14" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="220"/>
+      <c r="H14" s="218" t="s">
+        <v>188</v>
+      </c>
+      <c r="I14" s="219"/>
+      <c r="J14" s="220"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
       <c r="B15" s="84">
-        <v>40229</v>
+        <v>40242</v>
       </c>
       <c r="C15" s="86">
         <v>0.33333333333333331</v>
@@ -6564,92 +6482,92 @@
       <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="F15" s="212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="214"/>
-      <c r="H15" s="212" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="213"/>
-      <c r="J15" s="214"/>
+      <c r="F15" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="220"/>
+      <c r="H15" s="218" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="219"/>
+      <c r="J15" s="220"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1">
       <c r="B16" s="2"/>
       <c r="C16" s="86"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="214"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1">
       <c r="B17" s="2"/>
       <c r="C17" s="86"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="214"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="220"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="220"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1">
       <c r="B18" s="2"/>
       <c r="C18" s="86"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="214"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="220"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1">
       <c r="B19" s="2"/>
       <c r="C19" s="86"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="214"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="220"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" thickBot="1">
       <c r="B20" s="2"/>
       <c r="C20" s="86"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="214"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="220"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="220"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1">
       <c r="B21" s="2"/>
       <c r="C21" s="86"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="214"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="220"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" thickBot="1">
       <c r="B22" s="2"/>
       <c r="C22" s="86"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="214"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -6693,7 +6611,7 @@
   <dimension ref="B3:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6710,29 +6628,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.75">
-      <c r="B3" s="231" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
+      <c r="B3" s="237" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="82">
-        <v>40228</v>
+        <v>40242</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -6740,7 +6658,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>4</v>
@@ -6750,41 +6668,41 @@
     <row r="9" spans="2:9" ht="13.5" thickBot="1"/>
     <row r="10" spans="2:9">
       <c r="B10" s="179" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="175"/>
       <c r="D10" s="176" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="177"/>
       <c r="F10" s="178"/>
       <c r="G10" s="179" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10" s="180"/>
       <c r="I10" s="175"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="185" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="186" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="187" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="188" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="189" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="190" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" s="191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I11" s="192" t="s">
         <v>2</v>
@@ -6795,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D12" s="87">
         <v>3</v>
@@ -6821,7 +6739,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D13" s="87">
         <v>3</v>
@@ -6849,7 +6767,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D14" s="87">
         <v>1</v>
@@ -6877,7 +6795,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D15" s="87">
         <v>0.3</v>
@@ -6905,7 +6823,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D16" s="87">
         <v>2</v>
@@ -6933,7 +6851,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D17" s="87">
         <v>2</v>
@@ -6961,7 +6879,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D18" s="87">
         <v>1</v>
@@ -6989,7 +6907,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D19" s="87">
         <v>2</v>
@@ -7017,7 +6935,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D20" s="87">
         <v>2</v>
@@ -7045,7 +6963,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D21" s="87">
         <v>2</v>
@@ -7073,7 +6991,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="94" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D22" s="87">
         <v>3</v>
@@ -7101,7 +7019,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D23" s="87">
         <v>3</v>
@@ -7129,7 +7047,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D24" s="87">
         <v>0.3</v>
@@ -7157,7 +7075,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="71" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D25" s="87">
         <v>2</v>
@@ -7185,7 +7103,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="71" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D26" s="87">
         <v>2</v>
@@ -7213,7 +7131,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="71" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D27" s="87">
         <v>4</v>
@@ -7241,7 +7159,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="71" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D28" s="87">
         <v>2</v>
@@ -7269,7 +7187,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="71" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D29" s="87">
         <v>1</v>
@@ -7297,7 +7215,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="71" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D30" s="87">
         <v>1</v>
@@ -7325,7 +7243,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="71" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D31" s="87">
         <v>3</v>
@@ -7353,7 +7271,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="71" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D32" s="87">
         <v>2</v>
@@ -7381,7 +7299,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D33" s="87">
         <v>2</v>
@@ -7427,10 +7345,10 @@
     <row r="36" spans="2:9" ht="13.5" thickBot="1">
       <c r="B36" s="73"/>
       <c r="C36" s="79" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D36" s="80" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E36" s="73"/>
       <c r="F36" s="73"/>
@@ -7441,10 +7359,10 @@
     <row r="37" spans="2:9">
       <c r="B37" s="73"/>
       <c r="C37" s="77" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E37" s="73"/>
       <c r="F37" s="73"/>
@@ -7455,10 +7373,10 @@
     <row r="38" spans="2:9">
       <c r="B38" s="73"/>
       <c r="C38" s="26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E38" s="73"/>
       <c r="F38" s="73"/>
@@ -7469,10 +7387,10 @@
     <row r="39" spans="2:9">
       <c r="B39" s="73"/>
       <c r="C39" s="26" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E39" s="73"/>
       <c r="F39" s="73"/>
@@ -7483,10 +7401,10 @@
     <row r="40" spans="2:9">
       <c r="B40" s="73"/>
       <c r="C40" s="26" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E40" s="73"/>
       <c r="F40" s="73"/>
@@ -7497,10 +7415,10 @@
     <row r="41" spans="2:9">
       <c r="B41" s="73"/>
       <c r="C41" s="26" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E41" s="73"/>
       <c r="F41" s="73"/>
@@ -7511,10 +7429,10 @@
     <row r="42" spans="2:9" ht="13.5" thickBot="1">
       <c r="B42" s="73"/>
       <c r="C42" s="24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
@@ -7667,7 +7585,7 @@
   <dimension ref="B3:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="B10:I11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7683,29 +7601,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="15.75">
-      <c r="B3" s="233" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
+      <c r="B3" s="239" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="234" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="234"/>
+      <c r="C6" s="240" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="240"/>
       <c r="E6" s="102" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="138">
-        <v>40229</v>
+        <v>40242</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -7713,45 +7631,45 @@
         <v>3</v>
       </c>
       <c r="C7" s="139" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D7" s="140"/>
       <c r="E7" s="102" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="105" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="13.5" thickBot="1"/>
     <row r="10" spans="2:15" ht="15" customHeight="1">
-      <c r="B10" s="235" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="236"/>
-      <c r="D10" s="235" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="237"/>
-      <c r="F10" s="236"/>
-      <c r="G10" s="235" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="237"/>
-      <c r="I10" s="236"/>
+      <c r="B10" s="241" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="242"/>
+      <c r="D10" s="241" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="243"/>
+      <c r="F10" s="242"/>
+      <c r="G10" s="241" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="243"/>
+      <c r="I10" s="242"/>
     </row>
     <row r="11" spans="2:15" ht="13.5" thickBot="1">
       <c r="B11" s="181" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="182" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="181" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="183" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="182" t="s">
         <v>2</v>
@@ -7760,10 +7678,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="184" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I11" s="182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -7771,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D12" s="143">
         <v>1</v>
@@ -7794,21 +7712,21 @@
         <v>0.5</v>
       </c>
       <c r="K12" s="149" t="s">
-        <v>152</v>
-      </c>
-      <c r="L12" s="232" t="s">
-        <v>153</v>
-      </c>
-      <c r="M12" s="232"/>
-      <c r="N12" s="232"/>
-      <c r="O12" s="232"/>
+        <v>142</v>
+      </c>
+      <c r="L12" s="238" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="238"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="238"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="150">
         <v>2</v>
       </c>
       <c r="C13" s="151" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D13" s="152">
         <v>2</v>
@@ -7831,21 +7749,21 @@
         <v>2.5</v>
       </c>
       <c r="K13" s="157" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="238" t="s">
-        <v>155</v>
-      </c>
-      <c r="M13" s="238"/>
-      <c r="N13" s="238"/>
-      <c r="O13" s="238"/>
+        <v>73</v>
+      </c>
+      <c r="L13" s="244" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="244"/>
+      <c r="N13" s="244"/>
+      <c r="O13" s="244"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="141">
         <v>3</v>
       </c>
       <c r="C14" s="151" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D14" s="152">
         <v>2</v>
@@ -7868,21 +7786,21 @@
         <v>4.5</v>
       </c>
       <c r="K14" s="157" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="238" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="238"/>
-      <c r="N14" s="238"/>
-      <c r="O14" s="238"/>
+        <v>146</v>
+      </c>
+      <c r="L14" s="244" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="244"/>
+      <c r="N14" s="244"/>
+      <c r="O14" s="244"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="150">
         <v>4</v>
       </c>
       <c r="C15" s="151" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D15" s="152">
         <v>2</v>
@@ -7905,21 +7823,21 @@
         <v>7.5</v>
       </c>
       <c r="K15" s="157" t="s">
-        <v>157</v>
-      </c>
-      <c r="L15" s="239" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="240"/>
-      <c r="N15" s="240"/>
-      <c r="O15" s="241"/>
+        <v>147</v>
+      </c>
+      <c r="L15" s="245" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="246"/>
+      <c r="N15" s="246"/>
+      <c r="O15" s="247"/>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="141">
         <v>5</v>
       </c>
       <c r="C16" s="151" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D16" s="152">
         <v>1</v>
@@ -7942,10 +7860,10 @@
         <v>8.5</v>
       </c>
       <c r="K16" s="157" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="L16" s="158" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="M16" s="158"/>
       <c r="N16" s="158"/>
@@ -7956,7 +7874,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D17" s="152">
         <v>10</v>
@@ -7979,21 +7897,21 @@
         <v>15.5</v>
       </c>
       <c r="K17" s="157" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="239" t="s">
-        <v>161</v>
-      </c>
-      <c r="M17" s="240"/>
-      <c r="N17" s="240"/>
-      <c r="O17" s="241"/>
+        <v>150</v>
+      </c>
+      <c r="L17" s="245" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" s="246"/>
+      <c r="N17" s="246"/>
+      <c r="O17" s="247"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="141">
         <v>7</v>
       </c>
       <c r="C18" s="151" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D18" s="152">
         <v>1</v>
@@ -8016,21 +7934,21 @@
         <v>16.25</v>
       </c>
       <c r="K18" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="L18" s="238" t="s">
-        <v>163</v>
-      </c>
-      <c r="M18" s="238"/>
-      <c r="N18" s="238"/>
-      <c r="O18" s="238"/>
+        <v>152</v>
+      </c>
+      <c r="L18" s="244" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" s="244"/>
+      <c r="N18" s="244"/>
+      <c r="O18" s="244"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="150">
         <v>8</v>
       </c>
       <c r="C19" s="151" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D19" s="152">
         <v>0.5</v>
@@ -8058,7 +7976,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="151" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D20" s="152">
         <v>2</v>
@@ -8086,7 +8004,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="151" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D21" s="152">
         <v>2</v>
@@ -8114,7 +8032,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="151" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D22" s="152">
         <v>1</v>
@@ -8142,7 +8060,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="151" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D23" s="152">
         <v>2</v>
@@ -8170,7 +8088,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="151" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D24" s="152">
         <v>2</v>
@@ -8198,7 +8116,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="151" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D25" s="152">
         <v>4</v>
@@ -8226,7 +8144,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="151" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D26" s="152">
         <v>2</v>
@@ -8254,7 +8172,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="151" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D27" s="152">
         <v>10</v>
@@ -8282,7 +8200,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="151" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D28" s="152">
         <v>1</v>
@@ -8310,7 +8228,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="151" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D29" s="152">
         <v>3</v>
@@ -8338,7 +8256,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="151" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D30" s="152">
         <v>2</v>
@@ -8366,7 +8284,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="160" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D31" s="153">
         <v>2</v>
@@ -8414,7 +8332,7 @@
   <dimension ref="B3:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="B10:I11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8433,28 +8351,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="15.75">
-      <c r="B3" s="233" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
+      <c r="B3" s="239" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="102" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="103" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E6" s="102" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="104">
-        <v>40228</v>
+        <v>40242</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -8462,7 +8380,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="103" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E7" s="102" t="s">
         <v>4</v>
@@ -8472,44 +8390,44 @@
     <row r="9" spans="2:12" ht="13.5" thickBot="1"/>
     <row r="10" spans="2:12" ht="15" customHeight="1">
       <c r="B10" s="193" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="194"/>
       <c r="D10" s="195" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="196"/>
       <c r="F10" s="197"/>
-      <c r="G10" s="242" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="243"/>
-      <c r="I10" s="244"/>
+      <c r="G10" s="248" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="249"/>
+      <c r="I10" s="250"/>
     </row>
     <row r="11" spans="2:12" ht="13.5" thickBot="1">
       <c r="B11" s="198" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="199" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="200" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="202" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="203" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" s="204" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="205" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="13.5" thickBot="1">
@@ -8517,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="108" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D12" s="109">
         <v>0.25</v>
@@ -8538,10 +8456,10 @@
         <v>0.25</v>
       </c>
       <c r="K12" s="114" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L12" s="115" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:12">
@@ -8549,7 +8467,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D13" s="109">
         <v>0.25</v>
@@ -8570,10 +8488,10 @@
         <v>0.5</v>
       </c>
       <c r="K13" s="116" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L13" s="117" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -8581,7 +8499,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D14" s="109">
         <v>2</v>
@@ -8602,10 +8520,10 @@
         <v>2.5</v>
       </c>
       <c r="K14" s="106" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L14" s="107" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -8613,7 +8531,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D15" s="109">
         <v>2</v>
@@ -8634,10 +8552,10 @@
         <v>4.5</v>
       </c>
       <c r="K15" s="106" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L15" s="107" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:12">
@@ -8645,7 +8563,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="108" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D16" s="109">
         <v>2</v>
@@ -8666,10 +8584,10 @@
         <v>6.5</v>
       </c>
       <c r="K16" s="106" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L16" s="107" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -8677,7 +8595,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D17" s="109">
         <v>0.25</v>
@@ -8698,10 +8616,10 @@
         <v>6.75</v>
       </c>
       <c r="K17" s="106" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L17" s="107" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="13.5" thickBot="1">
@@ -8709,7 +8627,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D18" s="109">
         <v>0.25</v>
@@ -8730,10 +8648,10 @@
         <v>7</v>
       </c>
       <c r="K18" s="120" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L18" s="121" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -8741,7 +8659,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="107" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D19" s="109">
         <v>2</v>
@@ -8767,7 +8685,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="107" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D20" s="109">
         <v>2</v>
@@ -8793,7 +8711,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="108" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D21" s="109">
         <v>2</v>
@@ -8819,7 +8737,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="108" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D22" s="109">
         <v>5</v>
@@ -8845,7 +8763,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="108" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D23" s="109">
         <v>1</v>
@@ -8871,7 +8789,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D24" s="109">
         <v>0.25</v>
@@ -8897,7 +8815,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D25" s="109">
         <v>0.25</v>
@@ -8923,7 +8841,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D26" s="109">
         <v>2</v>
@@ -8949,7 +8867,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D27" s="109">
         <v>2</v>
@@ -8975,7 +8893,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="108" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D28" s="109">
         <v>1</v>
@@ -9001,7 +8919,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D29" s="109">
         <v>0.25</v>
@@ -9027,7 +8945,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D30" s="109">
         <v>0.25</v>
@@ -9053,7 +8971,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D31" s="109">
         <v>2</v>
@@ -9079,7 +8997,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D32" s="109">
         <v>2</v>
@@ -9105,7 +9023,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="108" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D33" s="109">
         <v>1</v>
@@ -9131,7 +9049,7 @@
         <v>23</v>
       </c>
       <c r="C34" s="108" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D34" s="109">
         <v>4</v>
@@ -9157,7 +9075,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D35" s="109">
         <v>0.5</v>
@@ -9183,7 +9101,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D36" s="109">
         <v>1</v>
@@ -9209,7 +9127,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D37" s="109">
         <v>3</v>
@@ -9235,7 +9153,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="121" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D38" s="122">
         <v>2</v>
